--- a/medicine/Enfance/Sylviane_Giampino/Sylviane_Giampino.xlsx
+++ b/medicine/Enfance/Sylviane_Giampino/Sylviane_Giampino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylviane Giampino est une psychologue de l'enfance, psychanalyste, Présidente du Haut Conseil de la famille, de l'enfance et de l'âge (HCFEA),  Présidente du Conseil de l'enfance et de l'adolescence du HCFEA, Présidente d'honneur de l'association nationale des psychologues pour la petite enfance (A.NA.PSY.p.e),
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de psychologie clinique et de sciences de l'éducation à l'université Paris V René Descartes, elle est successivement infirmière auprès d’enfants psychotiques à l’hôpital psychiatrique de Maison Blanche (dans le service pour enfants du Dr Yves Racine[source insuffisante]), puis institutrice spécialisée au centre Franchemond, un EMP parisien spécialisé dans les troubles du langage[1]. Elle s’oriente ensuite vers la prévention par le soutien à la parentalité et les actions en petite enfance, dans des crèches et des services de PMI de Seine-Saint-Denis[1]. Elle mène conjointement des recherches et des engagements associatifs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de psychologie clinique et de sciences de l'éducation à l'université Paris V René Descartes, elle est successivement infirmière auprès d’enfants psychotiques à l’hôpital psychiatrique de Maison Blanche (dans le service pour enfants du Dr Yves Racine[source insuffisante]), puis institutrice spécialisée au centre Franchemond, un EMP parisien spécialisé dans les troubles du langage. Elle s’oriente ensuite vers la prévention par le soutien à la parentalité et les actions en petite enfance, dans des crèches et des services de PMI de Seine-Saint-Denis. Elle mène conjointement des recherches et des engagements associatifs.
 En 1986, elle fonde l'association nationale des psychologues pour la petite enfance[réf. souhaitée], l'A.NA.PSY.p.e, qu'elle préside jusqu'en 2009. Elle en est depuis présidente d'honneur.
-Elle participe en 2006 aux travaux du collectif Pas de zéro de conduite pour les enfants de trois ans[réf. nécessaire], qui a recueilli 200 000 signatures, fédère l'essentiel des professionnels français de l'enfance, et poursuit son action en faveur d'une prévention et de soins psychologiques pour les enfants à l'écart de la prédiction et des approches normatives de leurs difficultés. Elle est également membre  de l'association Archives et Documentation Françoise Dolto, pour laquelle Sylviane Giampino anime des tables rondes[2][source insuffisante].
-Elle est nommée chevalier de la Légion d'honneur en juillet 2014, dans la liste du ministère des Affaires sociales et de la Santé[3].
-Le 22 avril 2022, elle est nommée par décret au Comité consultatif national d'éthique pour les sciences de la vie et de la santé sur proposition du président du Haut Conseil de la famille, de l'enfance et de l'âge[4].
+Elle participe en 2006 aux travaux du collectif Pas de zéro de conduite pour les enfants de trois ans[réf. nécessaire], qui a recueilli 200 000 signatures, fédère l'essentiel des professionnels français de l'enfance, et poursuit son action en faveur d'une prévention et de soins psychologiques pour les enfants à l'écart de la prédiction et des approches normatives de leurs difficultés. Elle est également membre  de l'association Archives et Documentation Françoise Dolto, pour laquelle Sylviane Giampino anime des tables rondes[source insuffisante].
+Elle est nommée chevalier de la Légion d'honneur en juillet 2014, dans la liste du ministère des Affaires sociales et de la Santé.
+Le 22 avril 2022, elle est nommée par décret au Comité consultatif national d'éthique pour les sciences de la vie et de la santé sur proposition du président du Haut Conseil de la famille, de l'enfance et de l'âge.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Thèmes de travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sylviane Giampino travaille avec les collectivités territoriales.
-Sylviane Giampino est la présidente du Haut Conseil de la famille, de l'enfance et de l'âge[5].  
-Sylviane Giampino remet son rapport : « Développement du jeune enfant : Modes d’accueil et Formation des professionnels » à Laurence Rossignol, Ministre des Familles, l’Enfance et des Droits des Femmes en mai 2016[6].
+Sylviane Giampino est la présidente du Haut Conseil de la famille, de l'enfance et de l'âge.  
+Sylviane Giampino remet son rapport : « Développement du jeune enfant : Modes d’accueil et Formation des professionnels » à Laurence Rossignol, Ministre des Familles, l’Enfance et des Droits des Femmes en mai 2016.
 </t>
         </is>
       </c>
